--- a/mbs-perturbation/bloated/svm/smote/bloated-svm-linear-results.xlsx
+++ b/mbs-perturbation/bloated/svm/smote/bloated-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.5944444444444444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9502262443438914</v>
+        <v>0.9683257918552036</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7486631016042782</v>
+        <v>0.7366609294320137</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8181855408365922</v>
+        <v>0.7660162568333981</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.851063829787234</v>
+        <v>0.849802371541502</v>
       </c>
       <c r="C3" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.9090909090909091</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.8791208791208791</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.9433360756890169</v>
+        <v>0.9569930069930069</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9049773755656109</v>
+        <v>0.8969957081545065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.95</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9070294784580498</v>
+        <v>0.9227373068432672</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9720485396955986</v>
+        <v>0.9583093377211025</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.9260869565217391</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9638009049773756</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8625792811839323</v>
+        <v>0.9445676274944568</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9241464417935006</v>
+        <v>0.9948992184286302</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9896907216494846</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8687782805429864</v>
+        <v>0.9366515837104072</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9253012048192771</v>
+        <v>0.965034965034965</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9912998765939943</v>
+        <v>0.9944672974084738</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8345805590699337</v>
+        <v>0.8525043576708999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9120526532291237</v>
+        <v>0.9592102015631427</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8645387890372833</v>
+        <v>0.8956183475791223</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9298032949217406</v>
+        <v>0.9341370234769222</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/svm/smote/bloated-svm-linear-results.xlsx
+++ b/mbs-perturbation/bloated/svm/smote/bloated-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5944444444444444</v>
+        <v>0.5826086956521739</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9683257918552036</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7366609294320137</v>
+        <v>0.7362637362637362</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7660162568333981</v>
+        <v>0.8169971040320785</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.849802371541502</v>
+        <v>0.8761061946902655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.927400468384075</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9569930069930069</v>
+        <v>0.9689611643276156</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8969957081545065</v>
+        <v>0.9170506912442397</v>
       </c>
       <c r="C4" t="n">
-        <v>0.95</v>
+        <v>0.9900497512437811</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9227373068432672</v>
+        <v>0.9521531100478471</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9583093377211025</v>
+        <v>0.9715353580356924</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9260869565217391</v>
+        <v>0.99</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9638009049773756</v>
+        <v>0.99</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9445676274944568</v>
+        <v>0.99</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9948992184286302</v>
+        <v>0.9995522388059703</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9951923076923077</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9366515837104072</v>
+        <v>0.9751243781094527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.965034965034965</v>
+        <v>0.9849246231155779</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9944672974084738</v>
+        <v>0.9988308457711442</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8525043576708999</v>
+        <v>0.8721378878909398</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9592102015631427</v>
+        <v>0.9880497512437809</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8956183475791223</v>
+        <v>0.9181483875622473</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9341370234769222</v>
+        <v>0.9511753421945002</v>
       </c>
     </row>
   </sheetData>
